--- a/full-list.xlsx
+++ b/full-list.xlsx
@@ -1299,7 +1299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="3" t="s">
         <v>43</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="3" t="s">
         <v>54</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="4" t="s">
         <v>62</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="4" t="s">
         <v>62</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="4" t="s">
         <v>62</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="4" t="s">
         <v>62</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="4" t="s">
         <v>62</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="4" t="s">
         <v>62</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="4" t="s">
         <v>62</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="4" t="s">
         <v>62</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="4" t="s">
         <v>62</v>
       </c>
